--- a/experiments/pg/easy_simulation/traj_10_batch_100_max_rew_mlp_3x182_20k_epochs/log_best_traj.xlsx
+++ b/experiments/pg/easy_simulation/traj_10_batch_100_max_rew_mlp_3x182_20k_epochs/log_best_traj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1961"/>
+  <dimension ref="A1:K2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87114,6 +87114,1774 @@
         </is>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1962" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1962" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1962" t="n">
+        <v>21.05464079100679</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1962" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1962" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1962" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1962" t="inlineStr">
+        <is>
+          <t>[0.00013081487850286067, 0.00012733299809042364, 0.9997418522834778]</t>
+        </is>
+      </c>
+      <c r="K1962" t="inlineStr">
+        <is>
+          <t>[0.9998255372047424, 0.00017449491133447737]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1963" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>20.79723743485742</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1963" t="inlineStr">
+        <is>
+          <t>[0.0006547776865772903, 0.00012479691940825433, 0.9992203712463379]</t>
+        </is>
+      </c>
+      <c r="K1963" t="inlineStr">
+        <is>
+          <t>[0.9998629093170166, 0.00013712799409404397]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1964" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>23.67353912760661</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1964" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1964" t="inlineStr">
+        <is>
+          <t>[0.9969710111618042, 0.0030114254914224148, 1.763086038408801e-05]</t>
+        </is>
+      </c>
+      <c r="K1964" t="inlineStr">
+        <is>
+          <t>[0.9998706579208374, 0.0001292971574002877]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1965" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>[1 2 0]</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>23.84833130176318</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1965" t="inlineStr">
+        <is>
+          <t>[2.486343691998627e-05, 0.9974145889282227, 0.00256053707562387]</t>
+        </is>
+      </c>
+      <c r="K1965" t="inlineStr">
+        <is>
+          <t>[0.9998701810836792, 0.0001298422721447423]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1966" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>[1 1 0]</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>23.35307809839939</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1966" t="inlineStr">
+        <is>
+          <t>[0.00019906298257410526, 0.999455988407135, 0.0003449722717050463]</t>
+        </is>
+      </c>
+      <c r="K1966" t="inlineStr">
+        <is>
+          <t>[0.9998843669891357, 0.00011561046994756907]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1967" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>[1 0 0]</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1967" t="inlineStr">
+        <is>
+          <t>[0.9998815059661865, 7.843400817364454e-05, 4.006475137430243e-05]</t>
+        </is>
+      </c>
+      <c r="K1967" t="inlineStr">
+        <is>
+          <t>[0.9998760223388672, 0.00012399375555105507]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1968" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>25.74904164331847</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1968" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1968" t="inlineStr">
+        <is>
+          <t>[2.928059439000208e-05, 0.974884033203125, 0.025086726993322372]</t>
+        </is>
+      </c>
+      <c r="K1968" t="inlineStr">
+        <is>
+          <t>[0.9998551607131958, 0.0001447729009669274]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1969" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1969" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1969" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1969" t="inlineStr">
+        <is>
+          <t>[0.0004890284617431462, 0.9992396831512451, 0.00027134030824527144]</t>
+        </is>
+      </c>
+      <c r="K1969" t="inlineStr">
+        <is>
+          <t>[0.9998329877853394, 0.00016701962158549577]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1970" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1970" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1970" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1970" t="inlineStr">
+        <is>
+          <t>[0.08698142319917679, 0.9119778275489807, 0.001040783361531794]</t>
+        </is>
+      </c>
+      <c r="K1970" t="inlineStr">
+        <is>
+          <t>[0.999799907207489, 0.0002000647655222565]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1971" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1971" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1971" t="n">
+        <v>25.74903970327512</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>1.940043354409227e-06</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>0.0001000009904604192</v>
+      </c>
+      <c r="J1971" t="inlineStr">
+        <is>
+          <t>[0.9840330481529236, 0.015608754940330982, 0.0003582798526622355]</t>
+        </is>
+      </c>
+      <c r="K1971" t="inlineStr">
+        <is>
+          <t>[0.999736487865448, 0.00026349848485551775]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1972" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>21.05464079100679</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1972" t="inlineStr">
+        <is>
+          <t>[0.00012427783804014325, 0.0001239743287442252, 0.9997517466545105]</t>
+        </is>
+      </c>
+      <c r="K1972" t="inlineStr">
+        <is>
+          <t>[0.9998372793197632, 0.00016263974248431623]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1973" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>20.79723743485742</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1973" t="inlineStr">
+        <is>
+          <t>[0.0005840660305693746, 0.00012041968147968873, 0.9992954730987549]</t>
+        </is>
+      </c>
+      <c r="K1973" t="inlineStr">
+        <is>
+          <t>[0.9998718500137329, 0.00012813092325814068]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1974" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>23.67353912760661</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1974" t="inlineStr">
+        <is>
+          <t>[0.9949105381965637, 0.005071936175227165, 1.7589438357390463e-05]</t>
+        </is>
+      </c>
+      <c r="K1974" t="inlineStr">
+        <is>
+          <t>[0.9998786449432373, 0.0001213071882375516]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1975" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>[1 2 0]</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>23.84833130176318</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1975" t="inlineStr">
+        <is>
+          <t>[2.7985979613731615e-05, 0.9979780316352844, 0.0019940456841140985]</t>
+        </is>
+      </c>
+      <c r="K1975" t="inlineStr">
+        <is>
+          <t>[0.9998785257339478, 0.00012150122347520664]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1976" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>[1 1 0]</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>23.35307809839939</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1976" t="inlineStr">
+        <is>
+          <t>[0.00017941459373105317, 0.9996065497398376, 0.00021400130935944617]</t>
+        </is>
+      </c>
+      <c r="K1976" t="inlineStr">
+        <is>
+          <t>[0.9998912811279297, 0.00010874178406083956]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1977" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>[1 0 0]</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1977" t="inlineStr">
+        <is>
+          <t>[0.9998633861541748, 0.00010291055514244363, 3.374900916242041e-05]</t>
+        </is>
+      </c>
+      <c r="K1977" t="inlineStr">
+        <is>
+          <t>[0.9998828172683716, 0.00011717896268237382]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1978" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>25.74904164331847</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1978" t="inlineStr">
+        <is>
+          <t>[3.223864041501656e-05, 0.9762663841247559, 0.023701412603259087]</t>
+        </is>
+      </c>
+      <c r="K1978" t="inlineStr">
+        <is>
+          <t>[0.9998637437820435, 0.00013625065912492573]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1979" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1979" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1979" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1979" t="inlineStr">
+        <is>
+          <t>[0.0004983966355212033, 0.9992423057556152, 0.00025927196838892996]</t>
+        </is>
+      </c>
+      <c r="K1979" t="inlineStr">
+        <is>
+          <t>[0.999842643737793, 0.00015737189096398652]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1980" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1980" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1980" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1980" t="inlineStr">
+        <is>
+          <t>[0.08186376094818115, 0.9171494245529175, 0.0009867828339338303]</t>
+        </is>
+      </c>
+      <c r="K1980" t="inlineStr">
+        <is>
+          <t>[0.9998109936714172, 0.00018897539121098816]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1981" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1981" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1981" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1981" t="n">
+        <v>25.74903964201058</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>2.001307887411485e-06</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>0.0001000004086964355</v>
+      </c>
+      <c r="J1981" t="inlineStr">
+        <is>
+          <t>[0.9826232194900513, 0.017004944384098053, 0.00037186811096034944]</t>
+        </is>
+      </c>
+      <c r="K1981" t="inlineStr">
+        <is>
+          <t>[0.999750554561615, 0.00024940556613728404]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1982" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>21.05464079100679</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1982" t="inlineStr">
+        <is>
+          <t>[0.00012411664647515863, 0.00013074510206934065, 0.9997451901435852]</t>
+        </is>
+      </c>
+      <c r="K1982" t="inlineStr">
+        <is>
+          <t>[0.9998455047607422, 0.00015450682258233428]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1983" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>20.79723743485742</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1983" t="inlineStr">
+        <is>
+          <t>[0.0004481114447116852, 0.00011808213457698002, 0.9994338154792786]</t>
+        </is>
+      </c>
+      <c r="K1983" t="inlineStr">
+        <is>
+          <t>[0.9998778104782104, 0.00012217086623422801]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1984" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>23.67353912760661</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1984" t="inlineStr">
+        <is>
+          <t>[0.9965143799781799, 0.0034695661161094904, 1.5989406165317632e-05]</t>
+        </is>
+      </c>
+      <c r="K1984" t="inlineStr">
+        <is>
+          <t>[0.9998836517333984, 0.0001162919943453744]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1985" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>[1 2 0]</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>23.84833130176318</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1985" t="inlineStr">
+        <is>
+          <t>[2.929015136032831e-05, 0.9955912828445435, 0.004379475489258766]</t>
+        </is>
+      </c>
+      <c r="K1985" t="inlineStr">
+        <is>
+          <t>[0.9998842477798462, 0.00011574813834158704]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1986" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>[1 1 0]</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>23.35307809839939</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1986" t="inlineStr">
+        <is>
+          <t>[0.0001477047335356474, 0.9989563226699829, 0.0008959522820077837]</t>
+        </is>
+      </c>
+      <c r="K1986" t="inlineStr">
+        <is>
+          <t>[0.9998944997787476, 0.00010545510303927585]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1987" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>[1 0 0]</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1987" t="inlineStr">
+        <is>
+          <t>[0.9998459815979004, 7.475056918337941e-05, 7.931790605653077e-05]</t>
+        </is>
+      </c>
+      <c r="K1987" t="inlineStr">
+        <is>
+          <t>[0.9998842477798462, 0.00011569869820959866]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1988" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>25.74904164331847</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1988" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1988" t="inlineStr">
+        <is>
+          <t>[5.158509156899527e-05, 0.9350248575210571, 0.06492359936237335]</t>
+        </is>
+      </c>
+      <c r="K1988" t="inlineStr">
+        <is>
+          <t>[0.9998666048049927, 0.00013340296573005617]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1989" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1989" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1989" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1989" t="inlineStr">
+        <is>
+          <t>[0.0004281542787794024, 0.9992319345474243, 0.0003399347187951207]</t>
+        </is>
+      </c>
+      <c r="K1989" t="inlineStr">
+        <is>
+          <t>[0.9998453855514526, 0.00015464374155271798]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1990" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1990" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1990" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1990" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1990" t="inlineStr">
+        <is>
+          <t>[0.09049433469772339, 0.908142626285553, 0.001363005954772234]</t>
+        </is>
+      </c>
+      <c r="K1990" t="inlineStr">
+        <is>
+          <t>[0.9998117089271545, 0.00018835604714695364]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1980</v>
+      </c>
+      <c r="B1991" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1991" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1991" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1991" t="inlineStr">
+        <is>
+          <t>[0.9885210990905762, 0.011091782711446285, 0.0003870487562380731]</t>
+        </is>
+      </c>
+      <c r="K1991" t="inlineStr">
+        <is>
+          <t>[0.9997487664222717, 0.00025127685512416065]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1992" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>[2 2 2]</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>21.05464079100679</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1992" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1992" t="inlineStr">
+        <is>
+          <t>[0.00012272430467419326, 0.00013538326311390847, 0.9997418522834778]</t>
+        </is>
+      </c>
+      <c r="K1992" t="inlineStr">
+        <is>
+          <t>[0.9998430013656616, 0.0001569952437421307]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1993" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>[2 2 1]</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>20.79723743485742</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1993" t="inlineStr">
+        <is>
+          <t>[0.00036576882121153176, 0.00010910450509982184, 0.9995250701904297]</t>
+        </is>
+      </c>
+      <c r="K1993" t="inlineStr">
+        <is>
+          <t>[0.9998750686645508, 0.00012496077397372574]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1994" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>[2 2 0]</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>23.67353912760661</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1994" t="inlineStr">
+        <is>
+          <t>[0.9973263740539551, 0.0026570598129183054, 1.6540083379368298e-05]</t>
+        </is>
+      </c>
+      <c r="K1994" t="inlineStr">
+        <is>
+          <t>[0.999880313873291, 0.0001196647499455139]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1995" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>[1 2 0]</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>23.84833130176318</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1995" t="inlineStr">
+        <is>
+          <t>[2.5932255084626377e-05, 0.9939390420913696, 0.00603500148281455]</t>
+        </is>
+      </c>
+      <c r="K1995" t="inlineStr">
+        <is>
+          <t>[0.9998799562454224, 0.00012005688768113032]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1996" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>[1 1 0]</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>23.35307809839939</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1996" t="inlineStr">
+        <is>
+          <t>[0.00011592606460908428, 0.9975589513778687, 0.0023251196835190058]</t>
+        </is>
+      </c>
+      <c r="K1996" t="inlineStr">
+        <is>
+          <t>[0.9998912811279297, 0.00010870415280805901]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1997" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>[1 0 0]</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>23.81196312324624</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1997" t="inlineStr">
+        <is>
+          <t>[0.9997532963752747, 7.880796329118311e-05, 0.00016797188436612487]</t>
+        </is>
+      </c>
+      <c r="K1997" t="inlineStr">
+        <is>
+          <t>[0.9998815059661865, 0.00011849722068291157]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1998" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>[0 0 0]</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>[ 2 -1]</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>25.74904164331847</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>2.574909210205078</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1998" t="inlineStr">
+        <is>
+          <t>[5.474651698023081e-05, 0.9208880662918091, 0.07905714213848114]</t>
+        </is>
+      </c>
+      <c r="K1998" t="inlineStr">
+        <is>
+          <t>[0.999862790107727, 0.00013720907736569643]</t>
+        </is>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1999" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>[ 0  0 -1]</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E1999" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F1999" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G1999" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J1999" t="inlineStr">
+        <is>
+          <t>[0.0003411092038732022, 0.9992640614509583, 0.0003947709046769887]</t>
+        </is>
+      </c>
+      <c r="K1999" t="inlineStr">
+        <is>
+          <t>[0.9998406171798706, 0.00015939252625685185]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B2000" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>[ 0 -1 -1]</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>[ 1 -1]</t>
+        </is>
+      </c>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F2000" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2000" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J2000" t="inlineStr">
+        <is>
+          <t>[0.06960279494524002, 0.9287900328636169, 0.001607149955816567]</t>
+        </is>
+      </c>
+      <c r="K2000" t="inlineStr">
+        <is>
+          <t>[0.9998071789741516, 0.00019281711138319224]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B2001" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>[ 0 -2 -1]</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>[ 0 -1]</t>
+        </is>
+      </c>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F2001" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G2001" t="n">
+        <v>25.74903978496115</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>1.85835731869588e-06</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>0.0001000017077561559</v>
+      </c>
+      <c r="J2001" t="inlineStr">
+        <is>
+          <t>[0.9873529672622681, 0.01214379072189331, 0.0005032592453062534]</t>
+        </is>
+      </c>
+      <c r="K2001" t="inlineStr">
+        <is>
+          <t>[0.9997441172599792, 0.0002558771229814738]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
